--- a/lib/excel/example.xlsx
+++ b/lib/excel/example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,12 +22,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="6">
   <si>
     <t xml:space="preserve">hello</t>
   </si>
   <si>
     <t xml:space="preserve">I am</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test3</t>
   </si>
   <si>
     <t xml:space="preserve">I</t>
@@ -127,14 +136,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D4:G8"/>
+  <dimension ref="D3:J8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="C6:E7 D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J3" s="0" t="e">
+        <f aca="false">0/0</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -165,7 +180,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="0" t="n">
-        <v>1</v>
+        <v>6E-006</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>1</v>
@@ -179,7 +194,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>2</v>
@@ -224,10 +239,10 @@
   <dimension ref="D12:G14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="1" sqref="C6:E7 B14"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
@@ -287,14 +302,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C4:E7"/>
+  <dimension ref="C3:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6:E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -312,7 +338,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5" s="0" t="str">
         <f aca="false">C5&amp;D5</f>
@@ -336,7 +362,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" s="0" t="str">
         <f aca="false">C7&amp;D7</f>

--- a/lib/excel/example.xlsx
+++ b/lib/excel/example.xlsx
@@ -22,7 +22,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+  <si>
+    <t xml:space="preserve">Title 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title 4</t>
+  </si>
   <si>
     <t xml:space="preserve">hello</t>
   </si>
@@ -46,8 +58,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -114,8 +127,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -139,84 +160,96 @@
   <dimension ref="D3:J8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J3" s="0" t="e">
+      <c r="D3" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2" t="e">
         <f aca="false">0/0</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="0" t="n">
+      <c r="D4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="0" t="n">
+      <c r="D5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="2" t="n">
         <v>6E-006</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="0" t="n">
+      <c r="E6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="2" t="n">
         <v>2.2</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="0" t="n">
+      <c r="E7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="0" t="n">
+      <c r="D8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -242,48 +275,48 @@
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>0</v>
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>1</v>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>0</v>
+      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -308,63 +341,63 @@
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>4</v>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="C4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="n">
         <f aca="false">C4+D4</f>
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="0" t="str">
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="str">
         <f aca="false">C5&amp;D5</f>
         <v>helloI</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="C6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="n">
         <f aca="false">C6+D6</f>
         <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="0" t="str">
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="str">
         <f aca="false">C7&amp;D7</f>
         <v>helloI</v>
       </c>

--- a/lib/excel/example.xlsx
+++ b/lib/excel/example.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t xml:space="preserve">Title 1</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t xml:space="preserve">Title 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gwl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muriel</t>
   </si>
   <si>
     <t xml:space="preserve">hello</t>
@@ -160,13 +166,13 @@
   <dimension ref="D3:J8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -218,8 +224,8 @@
       <c r="E6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="2" t="n">
-        <v>1</v>
+      <c r="F6" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>1</v>
@@ -240,17 +246,15 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="2" t="n">
-        <v>1</v>
+      <c r="G8" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -275,48 +279,48 @@
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -341,17 +345,17 @@
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -368,10 +372,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="str">
         <f aca="false">C5&amp;D5</f>
@@ -392,10 +396,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2" t="str">
         <f aca="false">C7&amp;D7</f>
